--- a/dbProjectData_modificado.xlsx
+++ b/dbProjectData_modificado.xlsx
@@ -467,7 +467,7 @@
         <v>31.1342019</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -518,7 +518,7 @@
         <v>-73.985428</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/dbProjectData_modificado.xlsx
+++ b/dbProjectData_modificado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>codProj</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>P9</t>
+  </si>
+  <si>
+    <t>Concluido</t>
   </si>
 </sst>
 </file>
@@ -466,8 +469,8 @@
       <c r="D3">
         <v>31.1342019</v>
       </c>
-      <c r="E3">
-        <v>9</v>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -517,8 +520,8 @@
       <c r="D6">
         <v>-73.985428</v>
       </c>
-      <c r="E6">
-        <v>9</v>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/dbProjectData_modificado.xlsx
+++ b/dbProjectData_modificado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>codProj</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>P9</t>
-  </si>
-  <si>
-    <t>Concluido</t>
   </si>
 </sst>
 </file>
@@ -469,8 +466,8 @@
       <c r="D3">
         <v>31.1342019</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -520,8 +517,8 @@
       <c r="D6">
         <v>-73.985428</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="E6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dbProjectData_modificado.xlsx
+++ b/dbProjectData_modificado.xlsx
@@ -467,7 +467,7 @@
         <v>31.1342019</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -518,7 +518,7 @@
         <v>-73.985428</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dbProjectData_modificado.xlsx
+++ b/dbProjectData_modificado.xlsx
@@ -467,7 +467,7 @@
         <v>31.1342019</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -518,7 +518,7 @@
         <v>-73.985428</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
